--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>oracle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>java培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.liaoxuefeng.com/wiki/896043488029600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ruanyifeng.com/blog/2012/07/git.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +513,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="13" spans="1:4">
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -529,9 +547,11 @@
     <hyperlink ref="D9" r:id="rId1"/>
     <hyperlink ref="D8" r:id="rId2"/>
     <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
